--- a/tp3.xlsx
+++ b/tp3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdaro\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F544727-D24A-4C1C-B44A-CAECD48D8444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6729ADD7-391E-4508-9719-81E34E2C46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{37FD1C8F-5E12-4B60-99E0-C984E3A475B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37FD1C8F-5E12-4B60-99E0-C984E3A475B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>Vlamingstraat 2, 2611 KW Delft</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Actief</t>
   </si>
 </sst>
 </file>
@@ -641,26 +641,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB7E1BF-E5C9-4D55-8B2F-C00324E2772D}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.1328125" customWidth="1"/>
-    <col min="3" max="3" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>58</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
     </row>
   </sheetData>
@@ -1326,13 +1326,13 @@
       <selection activeCell="A10" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>

--- a/tp3.xlsx
+++ b/tp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6729ADD7-391E-4508-9719-81E34E2C46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA43AF-8340-4115-A90B-EB36E6435592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37FD1C8F-5E12-4B60-99E0-C984E3A475B4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Bezienswaardigheden</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Actief</t>
+  </si>
+  <si>
+    <t>Station Delft, 2611 AC Delft</t>
+  </si>
+  <si>
+    <t>Station Delft</t>
+  </si>
+  <si>
+    <t>begin_eindpunt</t>
   </si>
 </sst>
 </file>
@@ -641,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB7E1BF-E5C9-4D55-8B2F-C00324E2772D}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +659,7 @@
     <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.08984375" customWidth="1"/>
     <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
@@ -1308,6 +1317,20 @@
       </c>
       <c r="D25" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">

--- a/tp3.xlsx
+++ b/tp3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA43AF-8340-4115-A90B-EB36E6435592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45CA63-C3D5-4A8B-AFE1-1D0327F628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37FD1C8F-5E12-4B60-99E0-C984E3A475B4}"/>
+    <workbookView xWindow="2860" yWindow="1780" windowWidth="14400" windowHeight="7270" xr2:uid="{37FD1C8F-5E12-4B60-99E0-C984E3A475B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Bezienswaardigheden</t>
   </si>
@@ -220,15 +220,6 @@
   </si>
   <si>
     <t>Actief</t>
-  </si>
-  <si>
-    <t>Station Delft, 2611 AC Delft</t>
-  </si>
-  <si>
-    <t>Station Delft</t>
-  </si>
-  <si>
-    <t>begin_eindpunt</t>
   </si>
 </sst>
 </file>
@@ -650,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB7E1BF-E5C9-4D55-8B2F-C00324E2772D}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,18 +1311,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
+      <c r="A26" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
